--- a/plotting/617_proj_summary.xlsx
+++ b/plotting/617_proj_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="selective" sheetId="4" r:id="rId4"/>
     <sheet name="selective_non_aug" sheetId="7" r:id="rId5"/>
     <sheet name="ice" sheetId="8" r:id="rId6"/>
+    <sheet name="new_dl" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="138">
   <si>
     <t>pix_acc</t>
   </si>
@@ -405,12 +406,66 @@
   <si>
     <t>4/4_49</t>
   </si>
+  <si>
+    <t>training_32_49_resnet_v1_101_0_3</t>
+  </si>
+  <si>
+    <t>anchor_ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> frazil_ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ice+water</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ice+water(fw)</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>training_32_49_resnet_v1_101_0_7</t>
+  </si>
+  <si>
+    <t>training_32_49_resnet_v1_101_0_15</t>
+  </si>
+  <si>
+    <t>training_32_49_resnet_v1_101_0_23</t>
+  </si>
+  <si>
+    <t>training_32_49_resnet_v1_101_0_31</t>
+  </si>
+  <si>
+    <t>training_32_49_nas_hnasnet_0_31_ade20k</t>
+  </si>
+  <si>
+    <t>training_32_49_nas_hnasnet_0_7_ade20k</t>
+  </si>
+  <si>
+    <t>training_32_49_nas_hnasnet_0_3_ade20k</t>
+  </si>
+  <si>
+    <t>training_32_49_nas_hnasnet_0_15_ade20k</t>
+  </si>
+  <si>
+    <t>training_32_49_nas_hnasnet_0_23_ade20k</t>
+  </si>
+  <si>
+    <t>ResNet101 (PSP)</t>
+  </si>
+  <si>
+    <t>Auto Deeplab</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +491,14 @@
     <font>
       <b/>
       <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -477,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -497,13 +560,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2211,27 +2277,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2516,27 +2582,27 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2821,27 +2887,27 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15" t="s">
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -3126,27 +3192,27 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15" t="s">
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -3432,11 +3498,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:J22"/>
     <mergeCell ref="K22:O22"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="F8:J8"/>
@@ -3444,6 +3505,11 @@
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="K8:O8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:J22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -3585,27 +3651,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3890,27 +3956,27 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -4195,27 +4261,27 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15" t="s">
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -4500,13 +4566,13 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -4639,99 +4705,99 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15" t="s">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -5273,70 +5339,70 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15" t="s">
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15" t="s">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -5878,70 +5944,70 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15" t="s">
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15" t="s">
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15" t="s">
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -6483,99 +6549,99 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15" t="s">
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15" t="s">
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15" t="s">
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -7117,69 +7183,69 @@
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15" t="s">
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15" t="s">
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15" t="s">
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -7721,69 +7787,69 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15" t="s">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15" t="s">
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15" t="s">
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15" t="s">
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="15"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -8325,64 +8391,64 @@
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="G58" s="15" t="s">
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="G58" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="M58" s="15" t="s">
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="M58" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="S58" s="15" t="s">
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="S58" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="15"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="G59" s="15" t="s">
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="G59" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="M59" s="15" t="s">
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="M59" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="S59" s="15" t="s">
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="S59" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="15"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
+      <c r="W59" s="16"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -8820,6 +8886,38 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="A11:Y11"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="S58:W58"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="S59:W59"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="G59:K59"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="A30:Y30"/>
+    <mergeCell ref="A29:Y29"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="P31:T31"/>
     <mergeCell ref="U31:Y31"/>
     <mergeCell ref="P40:T40"/>
@@ -8834,38 +8932,6 @@
     <mergeCell ref="K49:O49"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="F31:J31"/>
-    <mergeCell ref="A30:Y30"/>
-    <mergeCell ref="A29:Y29"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="S58:W58"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="S59:W59"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="G59:K59"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="A11:Y11"/>
-    <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:O12"/>
   </mergeCells>
   <conditionalFormatting sqref="B23:E25 G23:J25 L23:O25 B14:E16 G14:J16 L14:O16 B5:E10 G5:J7 L5:O7">
     <cfRule type="containsText" dxfId="138" priority="153" operator="containsText" text="how to draw a plane in opengl">
@@ -9298,82 +9364,82 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -9686,58 +9752,58 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15" t="s">
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -10050,58 +10116,58 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15" t="s">
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -10414,82 +10480,82 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15" t="s">
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15" t="s">
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -10802,58 +10868,58 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15" t="s">
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15" t="s">
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -11166,58 +11232,58 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15" t="s">
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15" t="s">
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -11530,64 +11596,64 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="G45" s="15" t="s">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="G45" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="M45" s="15" t="s">
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="M45" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="S45" s="15" t="s">
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="S45" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="G46" s="15" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="G46" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="M46" s="15" t="s">
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="M46" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="S46" s="15" t="s">
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="S46" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -11805,6 +11871,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="A23:T23"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="P3:T3"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="G46:K46"/>
     <mergeCell ref="M45:Q45"/>
@@ -11821,30 +11911,6 @@
     <mergeCell ref="S45:W45"/>
     <mergeCell ref="M46:Q46"/>
     <mergeCell ref="S46:W46"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="A23:T23"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:E6 G5:J6 L5:O8 Q5:T8 Q12:T15 I48:I51 K48:K51">
     <cfRule type="containsText" dxfId="55" priority="146" operator="containsText" text="how to draw a plane in opengl">
@@ -12134,7 +12200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -12151,28 +12217,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12455,15 +12521,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="I7">
         <v>32</v>
       </c>
@@ -12543,19 +12609,19 @@
       <c r="G9">
         <v>0.84050999999999998</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -12726,15 +12792,15 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
       <c r="I13">
         <v>16</v>
       </c>
@@ -12926,11 +12992,11 @@
       <c r="G17">
         <v>0.85296000000000005</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
@@ -12956,30 +13022,30 @@
       <c r="G18">
         <v>0.86944999999999995</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
       <c r="I19" s="1" t="s">
         <v>34</v>
       </c>
@@ -13092,7 +13158,7 @@
       <c r="G21">
         <v>0.54512000000000005</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="15" t="s">
         <v>119</v>
       </c>
       <c r="J21" s="11">
@@ -13295,15 +13361,15 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
       <c r="I25">
         <v>32</v>
       </c>
@@ -13360,19 +13426,19 @@
       <c r="G26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -13599,15 +13665,15 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
       <c r="I31" s="7">
         <v>24</v>
       </c>
@@ -13720,19 +13786,19 @@
       <c r="G33">
         <v>0.86138000000000003</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -13868,7 +13934,7 @@
       <c r="G36">
         <v>0.91722000000000004</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="15" t="s">
         <v>119</v>
       </c>
       <c r="J36" s="11">
@@ -13903,13 +13969,13 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
       <c r="I37">
         <v>8</v>
       </c>
@@ -14134,19 +14200,19 @@
       <c r="G41">
         <v>0.40035999999999999</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -14261,13 +14327,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
       <c r="I44">
         <v>8</v>
       </c>
@@ -14303,13 +14369,13 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
       <c r="I45">
         <v>16</v>
       </c>
@@ -14478,7 +14544,7 @@
       <c r="G48">
         <v>0.63192000000000004</v>
       </c>
-      <c r="I48" s="17" t="s">
+      <c r="I48" s="15" t="s">
         <v>119</v>
       </c>
       <c r="J48" s="11">
@@ -14585,11 +14651,11 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="H52" s="1" t="s">
@@ -14600,11 +14666,11 @@
       <c r="K52" s="12"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="H53" s="1" t="s">
@@ -14757,6 +14823,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="I9:S9"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="I1:S1"/>
     <mergeCell ref="I17:M17"/>
     <mergeCell ref="I33:S33"/>
     <mergeCell ref="I41:S41"/>
@@ -14765,18 +14841,601 @@
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="I26:S26"/>
     <mergeCell ref="I18:S18"/>
-    <mergeCell ref="I9:S9"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="I1:S1"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A44:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.70323000000000002</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.91188999999999998</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.85740000000000005</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.90353000000000006</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.69301000000000001</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.84372000000000003</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.89437999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0.57877000000000001</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.74985999999999997</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.75407000000000002</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.83721999999999996</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.55774999999999997</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.73592000000000002</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.73580999999999996</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.81982999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.70035999999999998</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.92569999999999997</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.85894000000000004</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.90329000000000004</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.73987999999999998</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.89122999999999997</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.86463999999999996</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.90746000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.76790000000000003</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.75612999999999997</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.83926999999999996</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.59694000000000003</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.75944</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.84353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.69160999999999995</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.90741000000000005</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.85670000000000002</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.91107000000000005</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.72436</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.89278999999999997</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.86343000000000003</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.91257999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.59245000000000003</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.76432999999999995</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.76576</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.84655999999999998</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.60692000000000002</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.77209000000000005</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.77137</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.84838000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0.76063000000000003</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.81589999999999996</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.84906000000000004</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.89210999999999996</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.75078999999999996</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.89041999999999999</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.87204999999999999</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.91342999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.56320999999999999</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.71208000000000005</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.73807999999999996</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.82391000000000003</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.62002999999999997</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.77346000000000004</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.77715999999999996</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.85114999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.78685000000000005</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.81283000000000005</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.85701000000000005</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.90207000000000004</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0.67064999999999997</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.93235999999999997</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.85158999999999996</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0.90807000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.59440000000000004</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.73426000000000002</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.75570000000000004</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.83655999999999997</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0.59794000000000003</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0.76466999999999996</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0.76339999999999997</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0.84006999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F14:J14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>